--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -387,7 +387,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,23 +395,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -419,10 +420,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2088,273 +2089,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B61733EA-30A9-48CB-8951-43750DA9F73D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15846814-7C38-4F61-AB45-7302BC7F38C6}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03AC3E62-A8FF-4B65-926C-05A0E8FDAA71}"/>
 </file>
--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,7 +74,13 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati decesso</t>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Data morte</t>
@@ -412,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -574,13 +580,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -591,13 +597,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -614,10 +620,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -634,10 +640,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -654,10 +660,10 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -674,10 +680,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -694,10 +700,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -714,10 +720,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
@@ -734,10 +740,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
@@ -748,19 +754,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -768,16 +774,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
@@ -788,16 +794,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
@@ -808,16 +814,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
@@ -828,7 +834,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
@@ -837,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>52</v>
@@ -848,7 +854,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
@@ -857,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
@@ -877,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -888,16 +894,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -908,16 +914,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -928,16 +934,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
@@ -948,16 +954,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>64</v>
@@ -968,16 +974,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
@@ -988,7 +994,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>67</v>
@@ -997,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>68</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>69</v>
@@ -1017,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
@@ -1028,7 +1034,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -1037,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>72</v>
@@ -1048,16 +1054,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
@@ -1068,16 +1074,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>76</v>
@@ -1088,16 +1094,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
@@ -1108,16 +1114,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>80</v>
@@ -1128,16 +1134,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>82</v>
@@ -1148,19 +1154,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1168,16 +1174,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>46</v>
@@ -1188,19 +1194,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1208,16 +1214,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>52</v>
@@ -1228,16 +1234,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>54</v>
@@ -1248,16 +1254,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>56</v>
@@ -1268,16 +1274,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>58</v>
@@ -1288,16 +1294,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>60</v>
@@ -1308,16 +1314,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>62</v>
@@ -1328,16 +1334,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>64</v>
@@ -1348,16 +1354,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>66</v>
@@ -1368,16 +1374,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>68</v>
@@ -1388,16 +1394,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>70</v>
@@ -1408,16 +1414,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>72</v>
@@ -1428,16 +1434,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>74</v>
@@ -1448,16 +1454,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>76</v>
@@ -1468,16 +1474,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>78</v>
@@ -1488,16 +1494,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>80</v>
@@ -1508,16 +1514,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>82</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1548,16 +1554,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>103</v>
@@ -1568,16 +1574,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>105</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1608,16 +1614,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>46</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1648,16 +1654,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>52</v>
@@ -1668,16 +1674,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>54</v>
@@ -1688,16 +1694,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>56</v>
@@ -1708,16 +1714,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>58</v>
@@ -1728,16 +1734,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>60</v>
@@ -1748,16 +1754,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>62</v>
@@ -1768,16 +1774,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>64</v>
@@ -1788,16 +1794,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>66</v>
@@ -1808,16 +1814,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>68</v>
@@ -1828,16 +1834,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>70</v>
@@ -1848,16 +1854,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>72</v>
@@ -1868,16 +1874,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>74</v>
@@ -1888,16 +1894,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>76</v>
@@ -1908,16 +1914,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>78</v>
@@ -1928,16 +1934,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>80</v>
@@ -1948,16 +1954,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>82</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -1988,16 +1994,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>103</v>
@@ -2008,16 +2014,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>105</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2051,16 +2057,16 @@
         <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2068,7 +2074,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>112</v>
@@ -2077,12 +2083,32 @@
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,21 +74,48 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Dati decesso</t>
+  </si>
+  <si>
     <t>Data morte</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.datiDiMorte</t>
   </si>
   <si>
@@ -332,7 +359,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -418,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -428,7 +455,7 @@
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -580,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -597,16 +624,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -617,16 +644,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -637,16 +664,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -657,16 +684,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -674,19 +701,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -694,19 +721,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -714,19 +741,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -734,19 +761,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -754,19 +781,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -774,19 +801,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -794,19 +821,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -814,19 +841,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -834,19 +861,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -854,19 +881,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -874,19 +901,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -894,19 +921,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -914,19 +941,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -934,19 +961,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -954,19 +981,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -974,19 +1001,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -994,19 +1021,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1014,19 +1041,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1034,19 +1061,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1054,19 +1081,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1074,19 +1101,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1094,19 +1121,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1114,19 +1141,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1134,19 +1161,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1154,19 +1181,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1174,19 +1201,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1194,19 +1221,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1214,19 +1241,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1234,19 +1261,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1254,19 +1281,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1274,19 +1301,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1294,19 +1321,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1314,19 +1341,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1334,19 +1361,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1354,19 +1381,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1374,19 +1401,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1394,19 +1421,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1414,19 +1441,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1434,19 +1461,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1454,19 +1481,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1474,19 +1501,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1494,19 +1521,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1514,19 +1541,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1534,19 +1561,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1554,19 +1581,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1574,19 +1601,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1594,19 +1621,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1614,19 +1641,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1634,19 +1661,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1654,19 +1681,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1674,19 +1701,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1694,19 +1721,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1714,19 +1741,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1734,19 +1761,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1754,19 +1781,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1774,19 +1801,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1794,19 +1821,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1814,19 +1841,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1834,19 +1861,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1854,19 +1881,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1874,19 +1901,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1894,19 +1921,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -1914,19 +1941,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1934,19 +1961,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1954,19 +1981,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1974,19 +2001,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -1994,19 +2021,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2014,19 +2041,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2034,19 +2061,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2054,19 +2081,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2074,19 +2101,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2094,21 +2121,101 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -366,6 +375,9 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -445,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,6 +469,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,25 +491,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -518,1705 +537,1963 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.2.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.2.1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -538,1962 +541,1962 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -311,7 +311,7 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -380,7 +380,7 @@
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -472,7 +472,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -179,6 +179,12 @@
     <t>nomeComuneMorte</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Deceduto</t>
   </si>
   <si>
@@ -249,6 +255,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -460,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -960,19 +969,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -983,16 +992,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1006,16 +1015,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1029,16 +1038,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1052,7 +1061,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1061,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1075,7 +1084,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1084,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1098,7 +1107,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1107,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1121,16 +1130,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1144,7 +1153,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1153,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1167,7 +1176,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1176,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1190,7 +1199,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1199,7 +1208,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1213,16 +1222,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1236,19 +1245,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1259,19 +1268,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1282,19 +1291,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1305,19 +1314,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1328,19 +1337,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1351,19 +1360,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1374,19 +1383,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1397,19 +1406,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1420,306 +1429,306 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>109</v>
@@ -1728,21 +1737,21 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>110</v>
@@ -1751,21 +1760,21 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
@@ -1774,21 +1783,21 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>112</v>
@@ -1797,21 +1806,21 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>113</v>
@@ -1820,21 +1829,21 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>114</v>
@@ -1843,21 +1852,21 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>115</v>
@@ -1866,228 +1875,228 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>103</v>
@@ -2096,21 +2105,21 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>104</v>
@@ -2119,21 +2128,21 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>105</v>
@@ -2142,21 +2151,21 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>106</v>
@@ -2165,21 +2174,21 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>107</v>
@@ -2188,21 +2197,21 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>108</v>
@@ -2211,291 +2220,383 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="2" t="s">
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="B91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,105 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -469,17 +568,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2562,7 +2661,7 @@
         <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>59</v>
@@ -2585,7 +2684,7 @@
         <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>59</v>
@@ -2597,6 +2696,351 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -568,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1574,1249 +1598,1249 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>146</v>
@@ -2825,7 +2849,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>147</v>
@@ -2834,12 +2858,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>148</v>
@@ -2848,136 +2872,136 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>159</v>
@@ -2986,61 +3010,153 @@
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -209,6 +209,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -365,10 +371,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -592,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1190,7 +1193,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>59</v>
@@ -1282,7 +1285,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -1371,7 +1374,7 @@
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -1380,7 +1383,7 @@
         <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1394,10 +1397,10 @@
         <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>59</v>
@@ -1489,7 +1492,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>59</v>
@@ -1690,145 +1693,145 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>113</v>
@@ -1837,21 +1840,21 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>114</v>
@@ -1860,21 +1863,21 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>115</v>
@@ -1883,21 +1886,21 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>116</v>
@@ -1906,573 +1909,573 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>117</v>
@@ -2481,21 +2484,21 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>118</v>
@@ -2504,659 +2507,728 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -848,7 +854,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1469,7 +1475,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
@@ -1492,7 +1498,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>59</v>
@@ -1716,375 +1722,375 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>122</v>
@@ -2093,21 +2099,21 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>123</v>
@@ -2116,21 +2122,21 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>124</v>
@@ -2139,21 +2145,21 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>125</v>
@@ -2162,21 +2168,21 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>126</v>
@@ -2185,21 +2191,21 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>127</v>
@@ -2208,228 +2214,228 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>115</v>
@@ -2438,21 +2444,21 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>116</v>
@@ -2461,21 +2467,21 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>117</v>
@@ -2484,21 +2490,21 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>118</v>
@@ -2507,113 +2513,113 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>121</v>
@@ -2622,200 +2628,200 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
@@ -2823,412 +2829,481 @@
         <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="B117" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -601,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2070,7 +2076,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
@@ -2079,7 +2085,7 @@
         <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2093,7 +2099,7 @@
         <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
@@ -2102,7 +2108,7 @@
         <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,7 +2122,7 @@
         <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
@@ -2125,7 +2131,7 @@
         <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2139,7 +2145,7 @@
         <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
@@ -2148,7 +2154,7 @@
         <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2162,7 +2168,7 @@
         <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -2171,7 +2177,7 @@
         <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2185,7 +2191,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
@@ -2194,7 +2200,7 @@
         <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2208,7 +2214,7 @@
         <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
@@ -2217,7 +2223,7 @@
         <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,7 +2237,7 @@
         <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
@@ -2240,7 +2246,7 @@
         <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,7 +2260,7 @@
         <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -2263,7 +2269,7 @@
         <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2320,11 +2326,11 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
@@ -2332,67 +2338,67 @@
         <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2401,21 +2407,21 @@
         <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
@@ -2424,21 +2430,21 @@
         <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
@@ -2447,21 +2453,21 @@
         <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
@@ -2470,21 +2476,21 @@
         <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
@@ -2493,21 +2499,21 @@
         <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
@@ -2516,21 +2522,21 @@
         <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
@@ -2539,21 +2545,21 @@
         <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
@@ -2562,21 +2568,21 @@
         <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
@@ -2585,21 +2591,21 @@
         <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
@@ -2608,21 +2614,21 @@
         <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
@@ -2631,21 +2637,21 @@
         <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
@@ -2654,18 +2660,18 @@
         <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>122</v>
@@ -2677,21 +2683,21 @@
         <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
@@ -2700,18 +2706,18 @@
         <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>124</v>
@@ -2723,18 +2729,18 @@
         <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>125</v>
@@ -2746,18 +2752,18 @@
         <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>126</v>
@@ -2769,18 +2775,18 @@
         <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>127</v>
@@ -2792,18 +2798,18 @@
         <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>128</v>
@@ -2815,18 +2821,18 @@
         <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>129</v>
@@ -2838,21 +2844,21 @@
         <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
@@ -2861,21 +2867,21 @@
         <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
@@ -2884,13 +2890,13 @@
         <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
@@ -2898,45 +2904,45 @@
         <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102">
@@ -2944,16 +2950,16 @@
         <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,346 +2970,392 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="B119" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -607,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3292,39 +3298,39 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>176</v>
@@ -3338,7 +3344,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>177</v>
@@ -3347,7 +3353,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>178</v>
@@ -3356,6 +3362,29 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -1786,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>113</v>
@@ -2384,7 +2384,7 @@
         <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>113</v>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Dati decesso</t>
@@ -613,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -906,19 +912,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -929,16 +935,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -952,7 +958,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -961,7 +967,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -975,7 +981,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -984,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -998,7 +1004,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -1007,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1021,7 +1027,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -1030,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1044,7 +1050,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -1053,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1067,7 +1073,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -1076,7 +1082,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1090,7 +1096,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -1099,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1113,7 +1119,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -1122,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -1136,19 +1142,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1159,16 +1165,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1182,16 +1188,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1214,7 +1220,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1228,16 +1234,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1260,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1283,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1297,7 +1303,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1306,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1320,16 +1326,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1343,7 +1349,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1352,7 +1358,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1366,7 +1372,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1375,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1398,7 +1404,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1412,19 +1418,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1435,16 +1441,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1467,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1481,16 +1487,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1504,7 +1510,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1513,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1527,7 +1533,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1536,7 +1542,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1550,7 +1556,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1559,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1573,7 +1579,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1582,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1605,7 +1611,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1619,7 +1625,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1628,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1651,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1665,7 +1671,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1674,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1688,7 +1694,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1697,7 +1703,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1720,7 +1726,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1734,7 +1740,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1743,7 +1749,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1757,39 +1763,39 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>62</v>
@@ -1798,35 +1804,35 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>67</v>
@@ -1835,7 +1841,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>68</v>
@@ -1844,12 +1850,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>69</v>
@@ -1858,7 +1864,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>70</v>
@@ -1867,21 +1873,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>72</v>
@@ -1890,21 +1896,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>74</v>
@@ -1913,21 +1919,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>76</v>
@@ -1936,21 +1942,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>78</v>
@@ -1959,21 +1965,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>80</v>
@@ -1982,21 +1988,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>82</v>
@@ -2005,44 +2011,44 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>85</v>
@@ -2051,21 +2057,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>87</v>
@@ -2074,67 +2080,67 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>91</v>
@@ -2143,21 +2149,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>93</v>
@@ -2166,21 +2172,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>95</v>
@@ -2189,21 +2195,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>97</v>
@@ -2212,21 +2218,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>99</v>
@@ -2235,21 +2241,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>101</v>
@@ -2258,21 +2264,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>103</v>
@@ -2281,35 +2287,35 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>133</v>
@@ -2318,7 +2324,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>134</v>
@@ -2327,12 +2333,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>135</v>
@@ -2341,7 +2347,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>136</v>
@@ -2350,44 +2356,44 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>62</v>
@@ -2396,35 +2402,35 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>67</v>
@@ -2433,7 +2439,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>68</v>
@@ -2442,12 +2448,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>69</v>
@@ -2456,7 +2462,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>70</v>
@@ -2465,21 +2471,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>72</v>
@@ -2488,21 +2494,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>74</v>
@@ -2511,21 +2517,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>76</v>
@@ -2534,21 +2540,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>78</v>
@@ -2557,21 +2563,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>80</v>
@@ -2580,21 +2586,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>82</v>
@@ -2603,44 +2609,44 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>85</v>
@@ -2649,21 +2655,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>87</v>
@@ -2672,67 +2678,67 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>91</v>
@@ -2741,21 +2747,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>93</v>
@@ -2764,21 +2770,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>95</v>
@@ -2787,21 +2793,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>97</v>
@@ -2810,21 +2816,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>99</v>
@@ -2833,21 +2839,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>101</v>
@@ -2856,21 +2862,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>103</v>
@@ -2879,35 +2885,35 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>133</v>
@@ -2916,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>134</v>
@@ -2925,12 +2931,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>135</v>
@@ -2939,7 +2945,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>136</v>
@@ -2948,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102">
@@ -2956,22 +2962,22 @@
         <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -2979,16 +2985,16 @@
         <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2999,7 +3005,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>144</v>
@@ -3008,7 +3014,7 @@
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>145</v>
@@ -3022,53 +3028,53 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>153</v>
@@ -3077,7 +3083,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>154</v>
@@ -3086,12 +3092,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>155</v>
@@ -3100,7 +3106,7 @@
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>156</v>
@@ -3109,12 +3115,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>157</v>
@@ -3123,7 +3129,7 @@
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>158</v>
@@ -3132,12 +3138,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>159</v>
@@ -3146,7 +3152,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>160</v>
@@ -3155,12 +3161,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>161</v>
@@ -3169,44 +3175,44 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>164</v>
@@ -3215,44 +3221,44 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -3261,7 +3267,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>168</v>
@@ -3270,12 +3276,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>169</v>
@@ -3284,7 +3290,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>170</v>
@@ -3293,12 +3299,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>171</v>
@@ -3307,7 +3313,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>172</v>
@@ -3316,44 +3322,44 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>178</v>
@@ -3367,7 +3373,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>179</v>
@@ -3376,7 +3382,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>180</v>
@@ -3385,6 +3391,29 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Dati decesso</t>
@@ -619,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -912,19 +906,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -935,16 +929,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -958,7 +952,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -967,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -981,7 +975,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -990,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1004,7 +998,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -1013,7 +1007,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1027,7 +1021,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -1036,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1050,7 +1044,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -1059,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1073,7 +1067,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -1082,7 +1076,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1096,7 +1090,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -1105,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1119,7 +1113,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -1128,7 +1122,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -1142,19 +1136,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1165,16 +1159,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1188,16 +1182,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1220,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1234,16 +1228,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1257,7 +1251,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1266,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1280,7 +1274,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1289,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1303,7 +1297,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1312,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1326,16 +1320,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1349,7 +1343,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1358,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1372,7 +1366,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1381,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1395,7 +1389,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1404,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1418,19 +1412,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1441,16 +1435,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1464,7 +1458,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1473,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1487,16 +1481,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1510,7 +1504,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1519,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1533,7 +1527,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1542,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1556,7 +1550,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1565,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1579,7 +1573,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1588,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1602,7 +1596,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1611,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1625,7 +1619,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1634,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1648,7 +1642,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1657,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1671,7 +1665,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1680,7 +1674,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1694,7 +1688,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1703,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1717,7 +1711,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1726,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1749,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1763,39 +1757,39 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>62</v>
@@ -1804,35 +1798,35 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>67</v>
@@ -1841,7 +1835,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>68</v>
@@ -1850,12 +1844,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>69</v>
@@ -1864,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>70</v>
@@ -1873,21 +1867,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>72</v>
@@ -1896,21 +1890,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>74</v>
@@ -1919,21 +1913,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>76</v>
@@ -1942,21 +1936,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>78</v>
@@ -1965,21 +1959,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>80</v>
@@ -1988,21 +1982,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>82</v>
@@ -2011,44 +2005,44 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>85</v>
@@ -2057,21 +2051,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>87</v>
@@ -2080,67 +2074,67 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>91</v>
@@ -2149,21 +2143,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>93</v>
@@ -2172,21 +2166,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>95</v>
@@ -2195,21 +2189,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>97</v>
@@ -2218,21 +2212,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>99</v>
@@ -2241,21 +2235,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>101</v>
@@ -2264,21 +2258,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>103</v>
@@ -2287,35 +2281,35 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>133</v>
@@ -2324,7 +2318,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>134</v>
@@ -2333,12 +2327,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>135</v>
@@ -2347,7 +2341,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>136</v>
@@ -2356,44 +2350,44 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>62</v>
@@ -2402,35 +2396,35 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>67</v>
@@ -2439,7 +2433,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>68</v>
@@ -2448,12 +2442,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>69</v>
@@ -2462,7 +2456,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>70</v>
@@ -2471,21 +2465,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>72</v>
@@ -2494,21 +2488,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>74</v>
@@ -2517,21 +2511,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>76</v>
@@ -2540,21 +2534,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>78</v>
@@ -2563,21 +2557,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>80</v>
@@ -2586,21 +2580,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>82</v>
@@ -2609,44 +2603,44 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>85</v>
@@ -2655,21 +2649,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>87</v>
@@ -2678,67 +2672,67 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>91</v>
@@ -2747,21 +2741,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>93</v>
@@ -2770,21 +2764,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>95</v>
@@ -2793,21 +2787,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>97</v>
@@ -2816,21 +2810,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>99</v>
@@ -2839,21 +2833,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>101</v>
@@ -2862,21 +2856,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>103</v>
@@ -2885,35 +2879,35 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>133</v>
@@ -2922,7 +2916,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>134</v>
@@ -2931,12 +2925,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>135</v>
@@ -2945,7 +2939,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>136</v>
@@ -2954,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102">
@@ -2962,22 +2956,22 @@
         <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -2985,16 +2979,16 @@
         <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3005,7 +2999,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>144</v>
@@ -3014,7 +3008,7 @@
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>145</v>
@@ -3028,53 +3022,53 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>153</v>
@@ -3083,7 +3077,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>154</v>
@@ -3092,12 +3086,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>155</v>
@@ -3106,7 +3100,7 @@
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>156</v>
@@ -3115,12 +3109,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>157</v>
@@ -3129,7 +3123,7 @@
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>158</v>
@@ -3138,12 +3132,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>159</v>
@@ -3152,7 +3146,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>160</v>
@@ -3161,12 +3155,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>161</v>
@@ -3175,44 +3169,44 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>164</v>
@@ -3221,44 +3215,44 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -3267,7 +3261,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>168</v>
@@ -3276,12 +3270,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>169</v>
@@ -3290,7 +3284,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>170</v>
@@ -3299,12 +3293,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>171</v>
@@ -3313,7 +3307,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>172</v>
@@ -3322,44 +3316,44 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>178</v>
@@ -3373,7 +3367,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>179</v>
@@ -3382,7 +3376,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>180</v>
@@ -3391,29 +3385,6 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -619,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1286,7 +1298,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>61</v>
@@ -1309,7 +1321,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>61</v>
@@ -1355,7 +1367,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>61</v>
@@ -1378,7 +1390,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>61</v>
@@ -1444,7 +1456,7 @@
         <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
@@ -1453,7 +1465,7 @@
         <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1467,16 +1479,16 @@
         <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1490,10 +1502,10 @@
         <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>61</v>
@@ -1516,7 +1528,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>61</v>
@@ -1539,7 +1551,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>61</v>
@@ -1786,214 +1798,214 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>121</v>
@@ -2002,21 +2014,21 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>122</v>
@@ -2025,159 +2037,159 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>127</v>
@@ -2186,21 +2198,21 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>128</v>
@@ -2209,44 +2221,44 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>130</v>
@@ -2255,21 +2267,21 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>131</v>
@@ -2278,21 +2290,21 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>132</v>
@@ -2301,21 +2313,21 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>133</v>
@@ -2324,366 +2336,366 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>123</v>
@@ -2692,21 +2704,21 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>124</v>
@@ -2715,44 +2727,44 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>126</v>
@@ -2761,246 +2773,246 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
@@ -3008,22 +3020,22 @@
         <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -3031,389 +3043,527 @@
         <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -631,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -693,63 +699,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -758,90 +764,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -850,21 +856,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -873,12 +879,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -887,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -896,21 +902,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -919,21 +925,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -942,44 +948,44 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -988,21 +994,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1011,21 +1017,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1034,21 +1040,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1057,21 +1063,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1080,21 +1086,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1103,21 +1109,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1126,21 +1132,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -1149,21 +1155,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -1172,44 +1178,44 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1218,21 +1224,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1241,21 +1247,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1264,12 +1270,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1278,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1287,21 +1293,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1310,21 +1316,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1333,12 +1339,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1347,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1356,21 +1362,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1379,21 +1385,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1402,21 +1408,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1425,21 +1431,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1448,21 +1454,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1471,21 +1477,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1494,44 +1500,44 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1540,21 +1546,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1563,21 +1569,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1586,21 +1592,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1609,21 +1615,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1632,21 +1638,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1655,21 +1661,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1678,21 +1684,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1701,21 +1707,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1724,21 +1730,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1747,21 +1753,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1770,21 +1776,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1793,21 +1799,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1816,21 +1822,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1839,44 +1845,44 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>64</v>
@@ -1885,44 +1891,44 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>70</v>
@@ -1931,21 +1937,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>72</v>
@@ -1954,21 +1960,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>74</v>
@@ -1977,21 +1983,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>76</v>
@@ -2000,21 +2006,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>78</v>
@@ -2023,21 +2029,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>80</v>
@@ -2046,21 +2052,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>82</v>
@@ -2069,21 +2075,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>84</v>
@@ -2092,21 +2098,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>86</v>
@@ -2115,21 +2121,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>88</v>
@@ -2138,44 +2144,44 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>91</v>
@@ -2184,21 +2190,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>93</v>
@@ -2207,67 +2213,67 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>97</v>
@@ -2276,21 +2282,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>99</v>
@@ -2299,21 +2305,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>101</v>
@@ -2322,21 +2328,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>103</v>
@@ -2345,21 +2351,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>105</v>
@@ -2368,21 +2374,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>107</v>
@@ -2391,21 +2397,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>109</v>
@@ -2414,44 +2420,44 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>140</v>
@@ -2460,21 +2466,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>142</v>
@@ -2483,44 +2489,44 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>64</v>
@@ -2529,44 +2535,44 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>70</v>
@@ -2575,21 +2581,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>72</v>
@@ -2598,21 +2604,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>74</v>
@@ -2621,21 +2627,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>76</v>
@@ -2644,21 +2650,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>78</v>
@@ -2667,21 +2673,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>80</v>
@@ -2690,21 +2696,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>82</v>
@@ -2713,21 +2719,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>84</v>
@@ -2736,21 +2742,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>86</v>
@@ -2759,21 +2765,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>88</v>
@@ -2782,44 +2788,44 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>91</v>
@@ -2828,21 +2834,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>93</v>
@@ -2851,67 +2857,67 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>97</v>
@@ -2920,21 +2926,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>99</v>
@@ -2943,21 +2949,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>101</v>
@@ -2966,21 +2972,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>103</v>
@@ -2989,21 +2995,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>105</v>
@@ -3012,21 +3018,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>107</v>
@@ -3035,21 +3041,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>109</v>
@@ -3058,44 +3064,44 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>140</v>
@@ -3104,21 +3110,21 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>142</v>
@@ -3127,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
@@ -3135,22 +3141,22 @@
         <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="110">
@@ -3158,36 +3164,36 @@
         <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>151</v>
@@ -3196,67 +3202,67 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>160</v>
@@ -3265,21 +3271,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>162</v>
@@ -3288,21 +3294,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>164</v>
@@ -3311,21 +3317,21 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>166</v>
@@ -3334,113 +3340,113 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>174</v>
@@ -3449,21 +3455,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>176</v>
@@ -3472,21 +3478,21 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>178</v>
@@ -3495,44 +3501,44 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>184</v>
@@ -3541,21 +3547,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>186</v>
@@ -3564,7 +3570,30 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_999.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="191">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Dati decesso</t>
@@ -637,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -976,19 +982,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -999,16 +1005,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1022,7 +1028,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -1031,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1045,7 +1051,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -1054,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -1077,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1091,7 +1097,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -1100,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -1114,7 +1120,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -1123,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -1137,7 +1143,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -1146,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -1160,7 +1166,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -1169,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -1183,7 +1189,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -1192,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1206,19 +1212,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1229,16 +1235,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1252,16 +1258,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1275,7 +1281,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1284,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1298,16 +1304,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1321,16 +1327,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1344,7 +1350,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1353,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1367,16 +1373,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1399,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1422,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1436,16 +1442,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1459,7 +1465,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1468,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1491,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1505,7 +1511,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1514,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1551,16 +1557,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1583,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1597,16 +1603,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1629,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1652,7 +1658,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1675,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1689,7 +1695,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1698,7 +1704,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>106</v>
@@ -1721,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
@@ -1735,7 +1741,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
@@ -1744,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>110</v>
@@ -1767,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>111</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>112</v>
@@ -1790,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1813,7 +1819,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1827,7 +1833,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1836,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1859,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1873,39 +1879,39 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>66</v>
@@ -1914,35 +1920,35 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>71</v>
@@ -1951,7 +1957,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>72</v>
@@ -1960,12 +1966,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>73</v>
@@ -1974,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>74</v>
@@ -1983,12 +1989,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>75</v>
@@ -1997,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>76</v>
@@ -2006,12 +2012,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>77</v>
@@ -2020,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>78</v>
@@ -2029,21 +2035,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>80</v>
@@ -2052,21 +2058,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>82</v>
@@ -2075,21 +2081,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>84</v>
@@ -2098,21 +2104,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>86</v>
@@ -2121,21 +2127,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>88</v>
@@ -2144,21 +2150,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>90</v>
@@ -2167,44 +2173,44 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>93</v>
@@ -2213,21 +2219,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>95</v>
@@ -2236,67 +2242,67 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>99</v>
@@ -2305,21 +2311,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>101</v>
@@ -2328,21 +2334,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>103</v>
@@ -2351,21 +2357,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>105</v>
@@ -2374,21 +2380,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>107</v>
@@ -2397,21 +2403,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>109</v>
@@ -2420,21 +2426,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>111</v>
@@ -2443,35 +2449,35 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>141</v>
@@ -2480,7 +2486,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>142</v>
@@ -2489,12 +2495,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>143</v>
@@ -2503,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>144</v>
@@ -2512,44 +2518,44 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>66</v>
@@ -2558,35 +2564,35 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>71</v>
@@ -2595,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>72</v>
@@ -2604,12 +2610,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>73</v>
@@ -2618,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>74</v>
@@ -2627,12 +2633,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>75</v>
@@ -2641,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>76</v>
@@ -2650,12 +2656,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>77</v>
@@ -2664,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>78</v>
@@ -2673,21 +2679,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>80</v>
@@ -2696,21 +2702,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>82</v>
@@ -2719,21 +2725,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>84</v>
@@ -2742,21 +2748,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>86</v>
@@ -2765,21 +2771,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>88</v>
@@ -2788,21 +2794,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>90</v>
@@ -2811,44 +2817,44 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>93</v>
@@ -2857,21 +2863,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>95</v>
@@ -2880,67 +2886,67 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>99</v>
@@ -2949,21 +2955,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>101</v>
@@ -2972,21 +2978,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>103</v>
@@ -2995,21 +3001,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>105</v>
@@ -3018,21 +3024,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>107</v>
@@ -3041,21 +3047,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>109</v>
@@ -3064,21 +3070,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -3087,35 +3093,35 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>141</v>
@@ -3124,7 +3130,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>142</v>
@@ -3133,12 +3139,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>143</v>
@@ -3147,7 +3153,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>144</v>
@@ -3156,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
@@ -3164,22 +3170,22 @@
         <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -3187,16 +3193,16 @@
         <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3207,7 +3213,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>152</v>
@@ -3216,7 +3222,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>153</v>
@@ -3230,53 +3236,53 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>161</v>
@@ -3285,7 +3291,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>162</v>
@@ -3294,12 +3300,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>163</v>
@@ -3308,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>164</v>
@@ -3317,12 +3323,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>165</v>
@@ -3331,7 +3337,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>166</v>
@@ -3340,12 +3346,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>167</v>
@@ -3354,7 +3360,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>168</v>
@@ -3363,12 +3369,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>169</v>
@@ -3377,44 +3383,44 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>172</v>
@@ -3423,44 +3429,44 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>175</v>
@@ -3469,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>176</v>
@@ -3478,12 +3484,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>177</v>
@@ -3492,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>178</v>
@@ -3501,12 +3507,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>179</v>
@@ -3515,7 +3521,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>180</v>
@@ -3524,44 +3530,44 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>186</v>
@@ -3575,7 +3581,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>187</v>
@@ -3584,7 +3590,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>188</v>
@@ -3593,6 +3599,29 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>19</v>
       </c>
     </row>
